--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370234.1379158312</v>
+        <v>383557.6009058515</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9739.121029325914</v>
+        <v>11933.15559619357</v>
       </c>
       <c r="C6" t="n">
-        <v>9739.121029325914</v>
+        <v>11933.15559619351</v>
       </c>
       <c r="D6" t="n">
-        <v>9739.121029325855</v>
+        <v>11933.15559619357</v>
       </c>
       <c r="E6" t="n">
-        <v>-54325.25787453046</v>
+        <v>-53025.06173536501</v>
       </c>
       <c r="F6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="G6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="H6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="I6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="J6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="K6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="L6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="M6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="N6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="O6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
       <c r="P6" t="n">
-        <v>78774.74212546961</v>
+        <v>80074.938264635</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383557.6009058515</v>
+        <v>397283.9590432695</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>425523.1391661035</v>
+        <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
         <v>425523.1391661035</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11933.15559619357</v>
+        <v>11933.15559619349</v>
       </c>
       <c r="C6" t="n">
-        <v>11933.15559619351</v>
+        <v>11933.15559619349</v>
       </c>
       <c r="D6" t="n">
-        <v>11933.15559619357</v>
+        <v>11933.15559619354</v>
       </c>
       <c r="E6" t="n">
-        <v>-53025.06173536501</v>
+        <v>-53025.06173536507</v>
       </c>
       <c r="F6" t="n">
         <v>80074.938264635</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397283.9590432695</v>
+        <v>313498.5572816448</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="D2" t="n">
         <v>471083.894762297</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11933.15559619349</v>
+        <v>11889.01981751242</v>
       </c>
       <c r="C6" t="n">
-        <v>11933.15559619349</v>
+        <v>11889.01981751242</v>
       </c>
       <c r="D6" t="n">
-        <v>11933.15559619354</v>
+        <v>11889.01981751242</v>
       </c>
       <c r="E6" t="n">
-        <v>-53025.06173536507</v>
+        <v>-67835.07857447898</v>
       </c>
       <c r="F6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="G6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="H6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="I6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="J6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="K6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="L6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="M6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="N6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="O6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
       <c r="P6" t="n">
-        <v>80074.938264635</v>
+        <v>65264.9214255211</v>
       </c>
     </row>
   </sheetData>
